--- a/docs/test/캡스톤디자인 테스트.xlsx
+++ b/docs/test/캡스톤디자인 테스트.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dltmd\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92D35EEA-6654-4473-A7F9-A6A54F303169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7E1F38-4586-4DC2-88A0-932A130A6FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15315" yWindow="6000" windowWidth="17535" windowHeight="10845" xr2:uid="{1D4DB895-D4AA-4208-9596-B0BB099057BD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1D4DB895-D4AA-4208-9596-B0BB099057BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,66 +56,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>옵션 창의 항목을 조절할 수 있다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>타이틀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>캐릭터가 정상적으로 이동하며 퍼즐과 상호작용이 가능하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면 전환과 이동이 정상적으로 진행된다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포톤 서버에 정상적으로 접속이 된다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create Room을 통해 룸이 생성이 된다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Find Room을 통해 생성된 룸을 확인할 수 있으며 해당 룸으로 참여가 가능하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타이틀 화면에서 닉네임이 정상적으로 입력이 된다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사운드, 이펙트, 애니메이션이 정상적으로 출력된다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 변경이 정상적으로 작동한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업적(도전과제) 달성 시 특별한 캐릭터를 획득이 정상적으로 진행된다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>옵션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스테이지 클리어시 수집한 아이템의 개수에 따라 등급이 정상적으로 변경된다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지의 퍼즐들이 정상적으로 작동한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 클리어시 업적이 정상적으로 클리어된다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,7 +80,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ⅹ</t>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터가 정상적으로 이동과 점프를 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포톤 서버에 정상적으로 접속이 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이틀 화면에서 닉네임이 정상적으로 입력이 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create Room을 통해 룸이 생성이 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find Room을 통해 생성된 룸 리스트를 확인할 수 있으며 해당 룸으로 참여가 가능하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 변경이 정상적으로 작동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업적(도전과제) 달성 시 특별한 캐릭터를 획득이 정상적으로 진행된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵션 창의 항목을 조절할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사운드, 이펙트, 애니메이션이 정상적으로 출력된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지의 퍼즐들이 정상적으로 작동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 클리어시 업적이 정상적으로 클리어된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터가 퍼즐과 상호작용이 가능하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>씬 전환과 이동이 정상적으로 진행된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 클리어시 수집한 아이템의 개수에 따라 부품등급이 정상적으로 변경된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -187,7 +191,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -210,13 +214,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -238,10 +279,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -558,20 +608,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF71031-6B23-4E7C-96D6-5A283E0A2093}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="76" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -582,141 +633,150 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="8"/>
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="8"/>
+      <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="10"/>
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="10"/>
+      <c r="B8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="11"/>
+      <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="8"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="8"/>
+      <c r="B14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="8"/>
+      <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A6:A9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
